--- a/config/vehicle_sub_types.xlsx
+++ b/config/vehicle_sub_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APERC\transport_data_system\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_data_system\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E2997-7343-4AD1-B6BA-E5880FCB3587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CF15FA-6F3B-4C4C-A3C8-4418F582CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{384E6DAB-500A-4893-A6AB-F6B99972C9B3}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{384E6DAB-500A-4893-A6AB-F6B99972C9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Vehicle Sub-type</t>
   </si>
@@ -63,16 +63,89 @@
   </si>
   <si>
     <t>Transit Buses</t>
+  </si>
+  <si>
+    <t>PASSENGER VEHICLES</t>
+  </si>
+  <si>
+    <t>CAMPERVANS</t>
+  </si>
+  <si>
+    <t>LIGHT COMMERCIAL VEHICLES</t>
+  </si>
+  <si>
+    <t>LIGHT RIGID TRUCKS</t>
+  </si>
+  <si>
+    <t>HEAVY RIGID TRUCKS</t>
+  </si>
+  <si>
+    <t>ARTICULATED TRUCKS</t>
+  </si>
+  <si>
+    <t>NON-FREIGHT CARRYING VEHICLES</t>
+  </si>
+  <si>
+    <t>BUSES</t>
+  </si>
+  <si>
+    <t>MOTORCYCLES</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Light-duty vehicle (passenger)</t>
+  </si>
+  <si>
+    <t>Minibus</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Light-duty vehicle (frieght)</t>
+  </si>
+  <si>
+    <t>Medium-duty vehicle</t>
+  </si>
+  <si>
+    <t>Heavy-duty vehicle</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Agricultural and forestry tractor</t>
+  </si>
+  <si>
+    <t>Special purpose vehicle</t>
+  </si>
+  <si>
+    <t>ccg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$$-C09]#,##0.00;[Red]&quot;-&quot;[$$-C09]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +184,374 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -141,34 +572,330 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="86">
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="35" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="36" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="42" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="44" xr:uid="{1ECFD5BA-0734-4C61-A333-721E4F2C0E91}"/>
+    <cellStyle name="60% - Accent2 2" xfId="45" xr:uid="{3B656B8E-9018-4DC8-918A-8AD5121989A0}"/>
+    <cellStyle name="60% - Accent3 2" xfId="46" xr:uid="{2EEF9C29-0F32-42C9-A114-A993FF20FCAB}"/>
+    <cellStyle name="60% - Accent4 2" xfId="47" xr:uid="{BCA73626-4B83-4E8D-97B1-D4DE54775482}"/>
+    <cellStyle name="60% - Accent5 2" xfId="48" xr:uid="{619DC7EC-D65B-4FD2-A781-77AE9EF26142}"/>
+    <cellStyle name="60% - Accent6 2" xfId="49" xr:uid="{CCEC7D3A-9799-4111-BB7B-A9F45E323E40}"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="34" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="40" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{BF657C20-8BD9-47FC-BFEE-D7479D3D1E75}"/>
     <cellStyle name="Comma 3" xfId="5" xr:uid="{71195D35-2BB0-477B-A5F9-93D8DAA9963B}"/>
     <cellStyle name="Comma 4" xfId="7" xr:uid="{847239F5-5777-4D0A-8E0A-5AFF62C02091}"/>
     <cellStyle name="Comma 5" xfId="6" xr:uid="{4A27999F-70D0-4383-925C-8CA06D68DE41}"/>
+    <cellStyle name="Explanatory Text" xfId="23" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="14" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading" xfId="50" xr:uid="{BD204B8B-EFF7-448F-872A-A07C954E95B7}"/>
+    <cellStyle name="Heading 1" xfId="10" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="12" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="13" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading1" xfId="51" xr:uid="{7A7208F9-EC15-4F5C-AFDE-FF67A8F55020}"/>
+    <cellStyle name="Hyperlink 2" xfId="52" xr:uid="{CA31FE4D-02C2-4236-8940-BA19E7B12C26}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="53" xr:uid="{9D265F4A-09C1-4C56-9570-CEF2BD1F73D5}"/>
+    <cellStyle name="Hyperlink 2 2 2" xfId="54" xr:uid="{BD1E844A-17AB-41A2-9059-6BB53168054D}"/>
+    <cellStyle name="Hyperlink 2 2 3" xfId="55" xr:uid="{BB4443A8-0DBD-4DBD-B6A6-A1FC523E580A}"/>
+    <cellStyle name="Hyperlink 2 2 4" xfId="56" xr:uid="{116AC877-91AA-490E-97DC-B78FB0A951B9}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="57" xr:uid="{A75D1B5E-73CA-4E61-9AB9-0466D6E06BEA}"/>
+    <cellStyle name="Hyperlink 2 4" xfId="58" xr:uid="{9B049C4B-1464-40A0-9C90-A594FE751ECE}"/>
+    <cellStyle name="Hyperlink 3" xfId="59" xr:uid="{92ED3839-91C1-49AD-8288-3FF7595AF0E0}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="60" xr:uid="{B5AD60BC-D508-47C8-9934-5F5EB93502B9}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="61" xr:uid="{85FBB269-5037-4191-AC6F-A349F5ABDC82}"/>
+    <cellStyle name="Hyperlink 3 4" xfId="62" xr:uid="{EDF129DF-4B9C-469E-885D-76127EC1BE8C}"/>
+    <cellStyle name="Hyperlink 4" xfId="63" xr:uid="{BCA46326-C6C0-4132-B8EF-00AD2741F6EE}"/>
+    <cellStyle name="Input" xfId="16" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="64" xr:uid="{A79F2F92-7435-4359-9DE9-2E44E9F003E1}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{F8CA3234-0CC6-4710-8F79-2B5CFAB03002}"/>
+    <cellStyle name="Normal 2 2" xfId="66" xr:uid="{E2E6C6BB-A2E9-479E-ACEA-D03AF549D5AC}"/>
+    <cellStyle name="Normal 2 2 2" xfId="67" xr:uid="{5970C98E-5D99-4383-BAE5-E4534BF7B201}"/>
+    <cellStyle name="Normal 2 2 3" xfId="68" xr:uid="{23FA9D7E-20C4-4FD5-BDC1-5912266C5031}"/>
+    <cellStyle name="Normal 2 2 4" xfId="69" xr:uid="{52B6FA74-6E04-41EA-AD2D-DE2EF277643D}"/>
+    <cellStyle name="Normal 2 3" xfId="70" xr:uid="{213719E0-C6A4-4C7B-9E7D-E59353E48944}"/>
+    <cellStyle name="Normal 2 4" xfId="71" xr:uid="{AEE41249-854B-4B4A-B601-8431A37A87BB}"/>
+    <cellStyle name="Normal 2 5" xfId="65" xr:uid="{E3EA33DC-2FE9-4482-9593-22555D99FE43}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{C62D80CC-F8D9-45D5-B516-653C8308EA7E}"/>
+    <cellStyle name="Normal 3 2" xfId="73" xr:uid="{4D4905B1-C819-43EC-BA5C-EDB3385912BC}"/>
+    <cellStyle name="Normal 3 3" xfId="74" xr:uid="{2B75BF51-7B12-48CC-AF54-887DEA35C378}"/>
+    <cellStyle name="Normal 3 4" xfId="75" xr:uid="{ABE44A89-2DCD-4FF4-9E8E-C311578FA841}"/>
+    <cellStyle name="Normal 3 5" xfId="72" xr:uid="{2151F771-A60A-42A0-BB8C-2A41B238A61F}"/>
     <cellStyle name="Normal 4" xfId="8" xr:uid="{AC390D1F-17F6-467F-9950-A5AFAEB389D4}"/>
+    <cellStyle name="Normal 4 2" xfId="77" xr:uid="{8FF060BB-B92C-47D2-8E6B-9575D8F7DC65}"/>
+    <cellStyle name="Normal 4 2 2" xfId="78" xr:uid="{8BC2EB68-B793-45BE-B76D-DA4F71DEAB8A}"/>
+    <cellStyle name="Normal 4 3" xfId="76" xr:uid="{402C4257-2CF0-421C-9BCE-B605AEF70424}"/>
     <cellStyle name="Normal 5" xfId="9" xr:uid="{E703AFE6-D94D-4302-B0A4-3F8C18B787DA}"/>
+    <cellStyle name="Normal 5 2" xfId="80" xr:uid="{14FC4861-11DB-4C44-9D30-9E6429E1A5D6}"/>
+    <cellStyle name="Normal 5 3" xfId="79" xr:uid="{C73DBDD1-7B4E-453E-A410-297E3E9D0D44}"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{C17F7768-95F2-4DF8-BEA2-576AFE77D706}"/>
+    <cellStyle name="Normal 6 2" xfId="81" xr:uid="{51646CF1-4B01-4EB6-94AE-C4EBC238D1A6}"/>
+    <cellStyle name="Normal 7" xfId="82" xr:uid="{06E8638D-B8C4-48BC-A80F-8214CB53D458}"/>
+    <cellStyle name="Normal 8" xfId="43" xr:uid="{C15B1311-4958-4F9A-8BE8-82E098620B2B}"/>
+    <cellStyle name="Note" xfId="22" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="17" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="83" xr:uid="{C3C41138-4FB3-43FA-A756-BABEE7E48759}"/>
+    <cellStyle name="Result2" xfId="84" xr:uid="{FE03B4B3-3C8D-4704-9CBB-EFC53512DCCC}"/>
+    <cellStyle name="Title 2" xfId="85" xr:uid="{57F35442-7250-42B6-B0C4-9C690E02E439}"/>
+    <cellStyle name="Total" xfId="24" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="21" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,60 +1359,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA712170-90E3-426C-9CCF-8385C5E7FD98}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
